--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,18 @@
     <sheet name="Calc" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calc!$A$1:$K$12</definedName>
     <definedName name="BOM">BOM!$A$1:$L$39</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -291,6 +292,18 @@
   </si>
   <si>
     <t>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>SMD only</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per Board</t>
   </si>
 </sst>
 </file>
@@ -823,7 +836,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,6 +851,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,7 +910,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42439.135842129632" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42440.935864120373" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L39" sheet="BOM"/>
   </cacheSource>
@@ -1501,7 +1516,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1896,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,7 +2002,7 @@
         <v>32</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE(K2," DigiKey Part: ",H2," (",E2,")")</f>
+        <f t="shared" ref="L2:L33" si="0">CONCATENATE(K2," DigiKey Part: ",H2," (",E2,")")</f>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2026,7 +2041,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE(K3," DigiKey Part: ",H3," (",E3,")")</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2065,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE(K4," DigiKey Part: ",H4," (",E4,")")</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2104,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE(K5," DigiKey Part: ",H5," (",E5,")")</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2143,7 +2158,7 @@
         <v>32</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE(K6," DigiKey Part: ",H6," (",E6,")")</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2182,7 +2197,7 @@
         <v>32</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE(K7," DigiKey Part: ",H7," (",E7,")")</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -2221,7 +2236,7 @@
         <v>45</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE(K8," DigiKey Part: ",H8," (",E8,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2260,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE(K9," DigiKey Part: ",H9," (",E9,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2299,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE(K10," DigiKey Part: ",H10," (",E10,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2338,7 +2353,7 @@
         <v>45</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE(K11," DigiKey Part: ",H11," (",E11,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2377,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE(K12," DigiKey Part: ",H12," (",E12,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2416,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE(K13," DigiKey Part: ",H13," (",E13,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -2455,7 +2470,7 @@
         <v>45</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE(K14," DigiKey Part: ",H14," (",E14,")")</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10561-ND (1x2 power)</v>
       </c>
     </row>
@@ -2494,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE(K15," DigiKey Part: ",H15," (",E15,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2533,7 +2548,7 @@
         <v>44</v>
       </c>
       <c r="L16" t="str">
-        <f>CONCATENATE(K16," DigiKey Part: ",H16," (",E16,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2572,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="L17" t="str">
-        <f>CONCATENATE(K17," DigiKey Part: ",H17," (",E17,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2611,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="L18" t="str">
-        <f>CONCATENATE(K18," DigiKey Part: ",H18," (",E18,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2650,7 +2665,7 @@
         <v>44</v>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE(K19," DigiKey Part: ",H19," (",E19,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2689,7 +2704,7 @@
         <v>44</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE(K20," DigiKey Part: ",H20," (",E20,")")</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -2728,7 +2743,7 @@
         <v>35</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE(K21," DigiKey Part: ",H21," (",E21,")")</f>
+        <f t="shared" si="0"/>
         <v>Serial Header DigiKey Part: 609-3263-ND (6x1 male)</v>
       </c>
     </row>
@@ -2767,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE(K22," DigiKey Part: ",H22," (",E22,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -2806,7 +2821,7 @@
         <v>46</v>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE(K23," DigiKey Part: ",H23," (",E23,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -2845,7 +2860,7 @@
         <v>46</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE(K24," DigiKey Part: ",H24," (",E24,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -2884,7 +2899,7 @@
         <v>46</v>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE(K25," DigiKey Part: ",H25," (",E25,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -2923,7 +2938,7 @@
         <v>46</v>
       </c>
       <c r="L26" t="str">
-        <f>CONCATENATE(K26," DigiKey Part: ",H26," (",E26,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -2962,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="L27" t="str">
-        <f>CONCATENATE(K27," DigiKey Part: ",H27," (",E27,")")</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -3001,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="L28" t="str">
-        <f>CONCATENATE(K28," DigiKey Part: ",H28," (",E28,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3040,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="L29" t="str">
-        <f>CONCATENATE(K29," DigiKey Part: ",H29," (",E29,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3079,7 +3094,7 @@
         <v>47</v>
       </c>
       <c r="L30" t="str">
-        <f>CONCATENATE(K30," DigiKey Part: ",H30," (",E30,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3118,7 +3133,7 @@
         <v>47</v>
       </c>
       <c r="L31" t="str">
-        <f>CONCATENATE(K31," DigiKey Part: ",H31," (",E31,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3157,7 +3172,7 @@
         <v>47</v>
       </c>
       <c r="L32" t="str">
-        <f>CONCATENATE(K32," DigiKey Part: ",H32," (",E32,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3196,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="L33" t="str">
-        <f>CONCATENATE(K33," DigiKey Part: ",H33," (",E33,")")</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -3681,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,7 +3713,7 @@
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3735,8 +3750,11 @@
         <f>CONCATENATE("Total (",D2,")")</f>
         <v>Total (12)</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Pivot!A2</f>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
@@ -3752,12 +3770,12 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A2)*C2*1.1,1)</f>
-        <v>40</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A2)*C2,1)</f>
+        <v>36</v>
       </c>
       <c r="F2">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A2)*D2*1.1,1)</f>
-        <v>80</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A2)*D2,1)</f>
+        <v>72</v>
       </c>
       <c r="G2" s="7">
         <f>GETPIVOTDATA(CONCATENATE("Sum of Price (",C2,")"),Pivot!$A$1,"Full Descruption",$A2)</f>
@@ -3768,21 +3786,24 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I2">
-        <f>G2*E2</f>
-        <v>1.56</v>
+        <f t="shared" ref="I2:I12" si="0">G2*E2</f>
+        <v>1.4039999999999999</v>
       </c>
       <c r="J2">
-        <f>H2*F2</f>
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J2:J12" si="1">H2*F2</f>
+        <v>2.3760000000000003</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Pivot!A3</f>
         <v>Electrolitic Cap DigiKey Part: 732-9353-1-ND (10µF)</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B12" si="0">TRIM(MID(A3,FIND(":",A3)+1,FIND("(",A3)-FIND(":",A3)-1))</f>
+        <f t="shared" ref="B3:B12" si="2">TRIM(MID(A3,FIND(":",A3)+1,FIND("(",A3)-FIND(":",A3)-1))</f>
         <v>732-9353-1-ND</v>
       </c>
       <c r="C3">
@@ -3808,21 +3829,21 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="I3">
-        <f>G3*E3</f>
+        <f t="shared" si="0"/>
         <v>1.1900000000000002</v>
       </c>
       <c r="J3">
-        <f>H3*F3</f>
+        <f t="shared" si="1"/>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Pivot!A4</f>
         <v>Header for BBB DigiKey Part: S2011EC-23-ND (23x2 Male Header)</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>S2011EC-23-ND</v>
       </c>
       <c r="C4">
@@ -3848,21 +3869,21 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="I4">
-        <f>G4*E4</f>
+        <f t="shared" si="0"/>
         <v>12.838000000000001</v>
       </c>
       <c r="J4">
-        <f>H4*F4</f>
+        <f t="shared" si="1"/>
         <v>24.759</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Pivot!A5</f>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>RHM1619CT-ND</v>
       </c>
       <c r="C5">
@@ -3872,12 +3893,12 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A5)*C5*1.1,1)</f>
-        <v>40</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A5)*C5,1)</f>
+        <v>36</v>
       </c>
       <c r="F5">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A5)*D5*1.1,1)</f>
-        <v>80</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A5)*D5,1)</f>
+        <v>72</v>
       </c>
       <c r="G5" s="7">
         <f>GETPIVOTDATA(CONCATENATE("Sum of Price (",C5,")"),Pivot!$A$1,"Full Descruption",$A5)</f>
@@ -3888,21 +3909,24 @@
         <v>0.1268</v>
       </c>
       <c r="I5">
-        <f>G5*E5</f>
-        <v>5.0720000000000001</v>
+        <f t="shared" si="0"/>
+        <v>4.5648</v>
       </c>
       <c r="J5">
-        <f>H5*F5</f>
-        <v>10.144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.1295999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Pivot!A6</f>
         <v>Serial Header DigiKey Part: 609-3263-ND (6x1 male)</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>609-3263-ND</v>
       </c>
       <c r="C6">
@@ -3928,21 +3952,21 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="I6">
-        <f>G6*E6</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="J6">
-        <f>H6*F6</f>
+        <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Pivot!A7</f>
         <v>Serial Header for BBB DigiKey Part: S7039-ND (6x1 female Header)</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>S7039-ND</v>
       </c>
       <c r="C7">
@@ -3968,21 +3992,21 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="I7">
-        <f>G7*E7</f>
+        <f t="shared" si="0"/>
         <v>4.8999999999999995</v>
       </c>
       <c r="J7">
-        <f>H7*F7</f>
+        <f t="shared" si="1"/>
         <v>7.6440000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Pivot!A8</f>
         <v>Tac Switch DigiKey Part: 679-2428-ND (Switch)</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>679-2428-ND</v>
       </c>
       <c r="C8">
@@ -4008,21 +4032,21 @@
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="I8">
-        <f>G8*E8</f>
+        <f t="shared" si="0"/>
         <v>1.302</v>
       </c>
       <c r="J8">
-        <f>H8*F8</f>
+        <f t="shared" si="1"/>
         <v>2.4192</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Pivot!A9</f>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ED10566-ND</v>
       </c>
       <c r="C9">
@@ -4048,21 +4072,21 @@
         <v>1.7789999999999999</v>
       </c>
       <c r="I9">
-        <f>G9*E9</f>
+        <f t="shared" si="0"/>
         <v>78.400000000000006</v>
       </c>
       <c r="J9">
-        <f>H9*F9</f>
+        <f t="shared" si="1"/>
         <v>142.32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Pivot!A10</f>
         <v>Terminal Block DigiKey Part: ED10561-ND (1x2 power)</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ED10561-ND</v>
       </c>
       <c r="C10">
@@ -4088,21 +4112,21 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="I10">
-        <f>G10*E10</f>
+        <f t="shared" si="0"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="J10">
-        <f>H10*F10</f>
+        <f t="shared" si="1"/>
         <v>7.6440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Pivot!A11</f>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>ED10523-ND</v>
       </c>
       <c r="C11">
@@ -4128,21 +4152,21 @@
         <v>0.27279999999999999</v>
       </c>
       <c r="I11">
-        <f>G11*E11</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J11">
-        <f>H11*F11</f>
+        <f t="shared" si="1"/>
         <v>21.823999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Pivot!A12</f>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>296-13939-1-ND</v>
       </c>
       <c r="C12">
@@ -4152,12 +4176,12 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A12)*C12*1.1,1)</f>
-        <v>40</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A12)*C12,1)</f>
+        <v>36</v>
       </c>
       <c r="F12">
-        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A12)*D12*1.1,1)</f>
-        <v>80</v>
+        <f>CEILING(GETPIVOTDATA("Sum of Quantity",Pivot!$A$1,"Full Descruption",Calc!$A12)*D12,1)</f>
+        <v>72</v>
       </c>
       <c r="G12" s="7">
         <f>GETPIVOTDATA(CONCATENATE("Sum of Price (",C12,")"),Pivot!$A$1,"Full Descruption",$A12)</f>
@@ -4168,35 +4192,73 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="I12">
-        <f>G12*E12</f>
-        <v>16.240000000000002</v>
+        <f t="shared" si="0"/>
+        <v>14.616000000000001</v>
       </c>
       <c r="J12">
-        <f>H12*F12</f>
-        <v>32.480000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>29.232000000000003</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="9">
         <f>SUM(I2:I12)</f>
-        <v>142.24200000000002</v>
-      </c>
-      <c r="J14">
+        <v>139.95480000000001</v>
+      </c>
+      <c r="J15" s="9">
         <f>SUM(J2:J12)</f>
-        <v>257.05420000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15">
-        <f>I14/C2</f>
-        <v>23.707000000000004</v>
-      </c>
-      <c r="J15">
-        <f>J14/D2</f>
-        <v>21.421183333333335</v>
+        <v>252.52779999999998</v>
+      </c>
+      <c r="K15" s="9">
+        <f>SUMIF($K2:$K12,"x",I2:I12)</f>
+        <v>20.584800000000001</v>
+      </c>
+      <c r="L15" s="9">
+        <f>SUMIF($K2:$K12,"x",J2:J12)</f>
+        <v>40.7376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="8">
+        <f>I15/$C$2</f>
+        <v>23.325800000000001</v>
+      </c>
+      <c r="J16" s="8">
+        <f>J15/D2</f>
+        <v>21.043983333333333</v>
+      </c>
+      <c r="K16" s="8">
+        <f>K15/C2</f>
+        <v>3.4308000000000001</v>
+      </c>
+      <c r="L16" s="8">
+        <f>L15/D2</f>
+        <v>3.3948</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,26 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="2640" yWindow="1935" windowWidth="27795" windowHeight="13110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="3" r:id="rId2"/>
     <sheet name="Calc" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Calc!$A$1:$K$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$A$1:$G$1</definedName>
     <definedName name="BOM">BOM!$A$1:$L$39</definedName>
+    <definedName name="PartNames">Sheet1!$A$2:$B$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="146">
   <si>
     <t>#</t>
   </si>
@@ -304,6 +308,174 @@
   </si>
   <si>
     <t>Per Board</t>
+  </si>
+  <si>
+    <t>Digi-key-Part</t>
+  </si>
+  <si>
+    <t>RefDes</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <t>BBB1</t>
+  </si>
+  <si>
+    <t>BeagleBone-Black</t>
+  </si>
+  <si>
+    <t>BBB-P9-DIL-BOT</t>
+  </si>
+  <si>
+    <t>Through Hole</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>.1uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>P0 - P7</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>P8 - P15</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>P16 - P23</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>P24 - P31</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>P32 - P39</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>5V 1amp</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>P32- P39</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>P40 - P47</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM1619CT-ND </t>
+  </si>
+  <si>
+    <t>100ohm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>BBB1-S</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -910,7 +1082,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42440.935864120373" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42442.05574895833" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L39" sheet="BOM"/>
   </cacheSource>
@@ -1516,7 +1688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1911,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3649,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="12" activeRow="1" previousRow="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="11" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3698,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,4 +4444,1060 @@
   <autoFilter ref="A1:K12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(C2,PartNames,2)</f>
+        <v>Header for BBB DigiKey Part: S2011EC-23-ND (23x2 Male Header)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(C3,PartNames,2)</f>
+        <v>Serial Header for BBB DigiKey Part: S7039-ND (6x1 female Header)</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(C4,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(C5,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(C6,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(C7,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(C8,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(C9,PartNames,2)</f>
+        <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(C10,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(C11,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(C12,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(C13,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(C14,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(C15,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(C16,PartNames,2)</f>
+        <v>Terminal Block DigiKey Part: ED10561-ND (1x2 power)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(C17,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(C18,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(C19,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(C20,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(C21,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(C22,PartNames,2)</f>
+        <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(C23,PartNames,2)</f>
+        <v>Serial Header DigiKey Part: 609-3263-ND (6x1 male)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(C24,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(C25,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(C26,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(C27,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(C28,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(C29,PartNames,2)</f>
+        <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(C30,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(C31,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(C32,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(C33,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(C34,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(C35,PartNames,2)</f>
+        <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(C36,PartNames,2)</f>
+        <v>Tac Switch DigiKey Part: 679-2428-ND (Switch)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(C37,PartNames,2)</f>
+        <v>Tac Switch DigiKey Part: 679-2428-ND (Switch)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(C38,PartNames,2)</f>
+        <v>Electrolitic Cap DigiKey Part: 732-9353-1-ND (10µF)</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1935" windowWidth="27795" windowHeight="13110" activeTab="3"/>
+    <workbookView xWindow="2640" yWindow="1935" windowWidth="27795" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1082,7 +1083,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42442.05574895833" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Nick Rapoport" refreshedDate="42471.746017592595" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="38">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L39" sheet="BOM"/>
   </cacheSource>
@@ -1688,7 +1689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3879,10 +3880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,7 +3939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Pivot!A2</f>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
@@ -4060,7 +4062,7 @@
         <v>24.759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Pivot!A5</f>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
@@ -4343,7 +4345,7 @@
         <v>21.823999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Pivot!A12</f>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
@@ -4441,7 +4443,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K12"/>
+  <autoFilter ref="A1:K12">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4450,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4633,7 @@
         <v>96</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(C2,PartNames,2)</f>
+        <f t="shared" ref="G2:G38" si="0">VLOOKUP(C2,PartNames,2)</f>
         <v>Header for BBB DigiKey Part: S2011EC-23-ND (23x2 Male Header)</v>
       </c>
     </row>
@@ -4651,7 +4657,7 @@
         <v>96</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(C3,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Serial Header for BBB DigiKey Part: S7039-ND (6x1 female Header)</v>
       </c>
       <c r="L3" s="6"/>
@@ -4676,7 +4682,7 @@
         <v>86</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(C4,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4700,7 +4706,7 @@
         <v>86</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(C5,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4724,7 +4730,7 @@
         <v>86</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(C6,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4748,7 +4754,7 @@
         <v>86</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(C7,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4772,7 +4778,7 @@
         <v>86</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(C8,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4796,7 +4802,7 @@
         <v>86</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(C9,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Ceramic Cap  DigiKey Part: 399-1249-1-ND (.1µF)</v>
       </c>
     </row>
@@ -4820,7 +4826,7 @@
         <v>96</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(C10,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4844,7 +4850,7 @@
         <v>96</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(C11,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4868,7 +4874,7 @@
         <v>96</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(C12,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4892,7 +4898,7 @@
         <v>96</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(C13,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4916,7 +4922,7 @@
         <v>96</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(C14,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4940,7 +4946,7 @@
         <v>96</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(C15,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10566-ND (1x8 (Screw-down))</v>
       </c>
     </row>
@@ -4964,7 +4970,7 @@
         <v>96</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(C16,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Terminal Block DigiKey Part: ED10561-ND (1x2 power)</v>
       </c>
     </row>
@@ -4988,7 +4994,7 @@
         <v>96</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(C17,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5012,7 +5018,7 @@
         <v>96</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(C18,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5036,7 +5042,7 @@
         <v>96</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(C19,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5060,7 +5066,7 @@
         <v>96</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(C20,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5084,7 +5090,7 @@
         <v>96</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(C21,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5108,7 +5114,7 @@
         <v>96</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(C22,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Shrouded Heder DigiKey Part: ED10523-ND (2x8 ribbon cable header)</v>
       </c>
     </row>
@@ -5132,7 +5138,7 @@
         <v>96</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(C23,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Serial Header DigiKey Part: 609-3263-ND (6x1 male)</v>
       </c>
     </row>
@@ -5156,7 +5162,7 @@
         <v>86</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(C24,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5180,7 +5186,7 @@
         <v>86</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(C25,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5204,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(C26,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5228,7 +5234,7 @@
         <v>86</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(C27,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5252,7 +5258,7 @@
         <v>86</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(C28,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5276,7 +5282,7 @@
         <v>86</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(C29,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Resistor Array DigiKey Part: RHM1619CT-ND (100Ω)</v>
       </c>
     </row>
@@ -5300,7 +5306,7 @@
         <v>86</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(C30,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5324,7 +5330,7 @@
         <v>86</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(C31,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5348,7 +5354,7 @@
         <v>86</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(C32,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5372,7 +5378,7 @@
         <v>86</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(C33,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5396,7 +5402,7 @@
         <v>86</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(C34,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5420,7 +5426,7 @@
         <v>86</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(C35,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>TI Transceiver  DigiKey Part: 296-13939-1-ND (Transceiver )</v>
       </c>
     </row>
@@ -5444,7 +5450,7 @@
         <v>96</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(C36,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Tac Switch DigiKey Part: 679-2428-ND (Switch)</v>
       </c>
     </row>
@@ -5468,7 +5474,7 @@
         <v>96</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(C37,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Tac Switch DigiKey Part: 679-2428-ND (Switch)</v>
       </c>
     </row>
@@ -5492,7 +5498,7 @@
         <v>96</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(C38,PartNames,2)</f>
+        <f t="shared" si="0"/>
         <v>Electrolitic Cap DigiKey Part: 732-9353-1-ND (10µF)</v>
       </c>
     </row>
